--- a/documents/LEICESTERSHIRE FOI EXCEL 2018-MAR 2020 for analysis.xlsx
+++ b/documents/LEICESTERSHIRE FOI EXCEL 2018-MAR 2020 for analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/LEICESTERSHIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C7B71F-0642-FC4B-94AD-A744D33236A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B04543-601F-C74C-9818-42BEEF806F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw ethnic 2018" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="134">
   <si>
     <t>Drug Type</t>
   </si>
@@ -688,6 +688,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -700,7 +701,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01207687-F0F3-524D-95B4-189BB98C9137}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,7 +992,7 @@
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2975,28 +2975,28 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="19">
         <f>(146/757)*100</f>
         <v>19.28665785997358</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="19">
         <f>(102/757)*100</f>
         <v>13.474240422721268</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="19">
         <f>(448/757)*100</f>
         <v>59.180977542932631</v>
       </c>
@@ -3010,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163C6263-0970-C243-A424-E35FCBBEBC8F}">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3019,7 +3019,7 @@
     <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>18.289353958143767</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>10.828025477707007</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -5574,63 +5574,102 @@
         <v>64.786169244767962</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>125</v>
+      </c>
+      <c r="N85">
+        <f>(62+9+3+72)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>126</v>
+      </c>
+      <c r="N86">
+        <f>(35+39+28)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>127</v>
+      </c>
+      <c r="N87">
+        <f>(383+2+63)</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="23" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="G92" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="G93" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="19">
         <f>(712-448)/448</f>
         <v>0.5892857142857143</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="19">
         <v>59</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+      <c r="M94">
+        <f>(201-146)/146*100</f>
+        <v>37.671232876712331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="19">
         <f>(119-102)/102</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="M95">
+        <f>(119-102)/102*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="19">
         <f>(201-146)/146</f>
         <v>0.37671232876712329</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="19">
         <v>38</v>
+      </c>
+      <c r="M96">
+        <f>(712-448)/448*100</f>
+        <v>58.928571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -5656,52 +5695,52 @@
         <v>63</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="4.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="7.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>2018</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -10005,52 +10044,52 @@
         <v>63</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="4.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="7.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>2019</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -15885,52 +15924,52 @@
         <v>63</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="4.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="7.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>2020</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
